--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>732255b2-48c7-45c9-bdef-c393c4ac5a1f.2528abc6ab9ba4efd02773286b53245ece249971.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-07 08:48:45</t>
+    <t>2016-01-07 08:49:28</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>732255b2-48c7-45c9-bdef-c393c4ac5a1f.2528abc6ab9ba4efd02773286b53245ece249971.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-07 08:48:57</t>
+    <t>2016-01-07 08:49:38</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>732255b2-48c7-45c9-bdef-c393c4ac5a1f.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,12 +70,15 @@
     <t>2016-01-07 08:49:28</t>
   </si>
   <si>
+    <t>2016-01-07 08:50:10</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>2016-01-07 08:49:38</t>
+  </si>
+  <si>
+    <t>2016-01-07 08:50:27</t>
   </si>
 </sst>
 </file>
@@ -238,6 +244,12 @@
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>18</v>
       </c>
@@ -253,20 +265,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="732255b2-48c7-45c9-bdef-c393c4ac5a1f.md" r:id="rId1"/>
     <hyperlink ref="C2" display="732255b2-48c7-45c9-bdef-c393c4ac5a1f.2528abc6ab9ba4efd02773286b53245ece249971.zh-cn.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="E2" display="732255b2-48c7-45c9-bdef-c393c4ac5a1f.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="732255b2-48c7-45c9-bdef-c393c4ac5a1f.2528abc6ab9ba4efd02773286b53245ece249971.zh-cn.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -317,13 +331,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>19</v>
@@ -337,20 +357,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="732255b2-48c7-45c9-bdef-c393c4ac5a1f.md" r:id="rId1"/>
     <hyperlink ref="C2" display="732255b2-48c7-45c9-bdef-c393c4ac5a1f.2528abc6ab9ba4efd02773286b53245ece249971.de-de.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="E2" display="732255b2-48c7-45c9-bdef-c393c4ac5a1f.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="732255b2-48c7-45c9-bdef-c393c4ac5a1f.2528abc6ab9ba4efd02773286b53245ece249971.de-de.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>eac2634a-fe6a-45a5-8061-0f5beac29c06.9528e99e6d8410e37db93b9a53bc96b16c8cb5ae.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-07 09:52:23</t>
+    <t>2016-01-07 09:53:45</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>eac2634a-fe6a-45a5-8061-0f5beac29c06.9528e99e6d8410e37db93b9a53bc96b16c8cb5ae.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-07 09:52:35</t>
+    <t>2016-01-07 09:53:55</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>eac2634a-fe6a-45a5-8061-0f5beac29c06.9528e99e6d8410e37db93b9a53bc96b16c8cb5ae.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-07 09:53:45</t>
+    <t>2016-01-07 09:55:07</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>eac2634a-fe6a-45a5-8061-0f5beac29c06.9528e99e6d8410e37db93b9a53bc96b16c8cb5ae.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-07 09:53:55</t>
+    <t>2016-01-07 09:55:17</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -25,7 +25,7 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>eac2634a-fe6a-45a5-8061-0f5beac29c06.md</t>
+    <t>0ddd2325-9ec6-4b03-8b00-dde45cf6aa6c.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
@@ -64,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>eac2634a-fe6a-45a5-8061-0f5beac29c06.9528e99e6d8410e37db93b9a53bc96b16c8cb5ae.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-07 09:55:07</t>
+    <t>0ddd2325-9ec6-4b03-8b00-dde45cf6aa6c.ab4883deb1bad9a3adac589d5f8ec9df71350cfd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-07 09:57:56</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>eac2634a-fe6a-45a5-8061-0f5beac29c06.9528e99e6d8410e37db93b9a53bc96b16c8cb5ae.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-07 09:55:17</t>
+    <t>0ddd2325-9ec6-4b03-8b00-dde45cf6aa6c.ab4883deb1bad9a3adac589d5f8ec9df71350cfd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-07 09:58:06</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="eac2634a-fe6a-45a5-8061-0f5beac29c06.md" r:id="rId1"/>
+    <hyperlink ref="A2" display="0ddd2325-9ec6-4b03-8b00-dde45cf6aa6c.md" r:id="rId1"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
@@ -264,8 +264,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="eac2634a-fe6a-45a5-8061-0f5beac29c06.md" r:id="rId1"/>
-    <hyperlink ref="C2" display="eac2634a-fe6a-45a5-8061-0f5beac29c06.9528e99e6d8410e37db93b9a53bc96b16c8cb5ae.zh-cn.xlf" r:id="rId2"/>
+    <hyperlink ref="A2" display="0ddd2325-9ec6-4b03-8b00-dde45cf6aa6c.md" r:id="rId1"/>
+    <hyperlink ref="C2" display="0ddd2325-9ec6-4b03-8b00-dde45cf6aa6c.ab4883deb1bad9a3adac589d5f8ec9df71350cfd.zh-cn.xlf" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -348,8 +348,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="eac2634a-fe6a-45a5-8061-0f5beac29c06.md" r:id="rId1"/>
-    <hyperlink ref="C2" display="eac2634a-fe6a-45a5-8061-0f5beac29c06.9528e99e6d8410e37db93b9a53bc96b16c8cb5ae.de-de.xlf" r:id="rId2"/>
+    <hyperlink ref="A2" display="0ddd2325-9ec6-4b03-8b00-dde45cf6aa6c.md" r:id="rId1"/>
+    <hyperlink ref="C2" display="0ddd2325-9ec6-4b03-8b00-dde45cf6aa6c.ab4883deb1bad9a3adac589d5f8ec9df71350cfd.de-de.xlf" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>baf06706-15cb-4456-ac07-e2025909e5b6.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,12 +70,15 @@
     <t>2016-01-07 11:03:05</t>
   </si>
   <si>
+    <t>2016-01-07 11:04:06</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>2016-01-07 11:03:16</t>
+  </si>
+  <si>
+    <t>2016-01-07 11:04:20</t>
   </si>
 </sst>
 </file>
@@ -238,6 +244,12 @@
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>18</v>
       </c>
@@ -253,20 +265,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="baf06706-15cb-4456-ac07-e2025909e5b6.md" r:id="rId1"/>
     <hyperlink ref="C2" display="baf06706-15cb-4456-ac07-e2025909e5b6.2d7bbfdcfca8422fe3673442d7d14dc0e351b1ec.zh-cn.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="E2" display="baf06706-15cb-4456-ac07-e2025909e5b6.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="baf06706-15cb-4456-ac07-e2025909e5b6.2d7bbfdcfca8422fe3673442d7d14dc0e351b1ec.zh-cn.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -317,13 +331,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>19</v>
@@ -337,20 +357,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="baf06706-15cb-4456-ac07-e2025909e5b6.md" r:id="rId1"/>
     <hyperlink ref="C2" display="baf06706-15cb-4456-ac07-e2025909e5b6.2d7bbfdcfca8422fe3673442d7d14dc0e351b1ec.de-de.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="E2" display="baf06706-15cb-4456-ac07-e2025909e5b6.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="baf06706-15cb-4456-ac07-e2025909e5b6.2d7bbfdcfca8422fe3673442d7d14dc0e351b1ec.de-de.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>2eff61ea-3a49-4af9-a49a-115643b7abf4.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>78740cd6-903a-4fec-92db-091bdfe1fe15.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-07 11:06:27</t>
   </si>
   <si>
+    <t>2016-01-07 11:07:29</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>78740cd6-903a-4fec-92db-091bdfe1fe15.4984dd8aa532fb358edde686fcdf65b9d5557d07.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>78740cd6-903a-4fec-92db-091bdfe1fe15.4984dd8aa532fb358edde686fcdf65b9d5557d07.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-07 11:06:36</t>
+  </si>
+  <si>
+    <t>2016-01-07 11:07:11</t>
   </si>
   <si>
     <t>78740cd6-903a-4fec-92db-091bdfe1fe15.4984dd8aa532fb358edde686fcdf65b9d5557d07.de-de.xlf</t>
@@ -259,6 +265,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -279,6 +291,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -294,22 +312,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2eff61ea-3a49-4af9-a49a-115643b7abf4.md" r:id="rId1"/>
     <hyperlink ref="C2" display="2eff61ea-3a49-4af9-a49a-115643b7abf4.06819624d60cdecd863e2321b8620db3234311b3.zh-cn.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display="78740cd6-903a-4fec-92db-091bdfe1fe15.md" r:id="rId3"/>
-    <hyperlink ref="C3" display="78740cd6-903a-4fec-92db-091bdfe1fe15.4984dd8aa532fb358edde686fcdf65b9d5557d07.zh-cn.xlf" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="E2" display="2eff61ea-3a49-4af9-a49a-115643b7abf4.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="2eff61ea-3a49-4af9-a49a-115643b7abf4.06819624d60cdecd863e2321b8620db3234311b3.zh-cn.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display="78740cd6-903a-4fec-92db-091bdfe1fe15.md" r:id="rId5"/>
+    <hyperlink ref="C3" display="78740cd6-903a-4fec-92db-091bdfe1fe15.4984dd8aa532fb358edde686fcdf65b9d5557d07.zh-cn.xlf" r:id="rId6"/>
+    <hyperlink ref="E3" display="78740cd6-903a-4fec-92db-091bdfe1fe15.md" r:id="rId7"/>
+    <hyperlink ref="F3" display="78740cd6-903a-4fec-92db-091bdfe1fe15.4984dd8aa532fb358edde686fcdf65b9d5557d07.zh-cn.xlf" r:id="rId8"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -360,13 +382,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -380,13 +408,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -400,22 +434,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2eff61ea-3a49-4af9-a49a-115643b7abf4.md" r:id="rId1"/>
     <hyperlink ref="C2" display="2eff61ea-3a49-4af9-a49a-115643b7abf4.06819624d60cdecd863e2321b8620db3234311b3.de-de.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display="78740cd6-903a-4fec-92db-091bdfe1fe15.md" r:id="rId3"/>
-    <hyperlink ref="C3" display="78740cd6-903a-4fec-92db-091bdfe1fe15.4984dd8aa532fb358edde686fcdf65b9d5557d07.de-de.xlf" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="E2" display="2eff61ea-3a49-4af9-a49a-115643b7abf4.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="2eff61ea-3a49-4af9-a49a-115643b7abf4.06819624d60cdecd863e2321b8620db3234311b3.de-de.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display="78740cd6-903a-4fec-92db-091bdfe1fe15.md" r:id="rId5"/>
+    <hyperlink ref="C3" display="78740cd6-903a-4fec-92db-091bdfe1fe15.4984dd8aa532fb358edde686fcdf65b9d5557d07.de-de.xlf" r:id="rId6"/>
+    <hyperlink ref="E3" display="78740cd6-903a-4fec-92db-091bdfe1fe15.md" r:id="rId7"/>
+    <hyperlink ref="F3" display="78740cd6-903a-4fec-92db-091bdfe1fe15.4984dd8aa532fb358edde686fcdf65b9d5557d07.de-de.xlf" r:id="rId8"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>3a4c0784-b4ee-4359-a849-d72277d74a37.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,12 +70,15 @@
     <t>2016-01-07 12:49:41</t>
   </si>
   <si>
+    <t>2016-01-07 12:50:29</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>2016-01-07 12:49:53</t>
+  </si>
+  <si>
+    <t>2016-01-07 12:50:48</t>
   </si>
 </sst>
 </file>
@@ -238,6 +244,12 @@
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>18</v>
       </c>
@@ -253,20 +265,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3a4c0784-b4ee-4359-a849-d72277d74a37.md" r:id="rId1"/>
     <hyperlink ref="C2" display="3a4c0784-b4ee-4359-a849-d72277d74a37.020e7190a0749e28a782ba881c3051d83f86f386.zh-cn.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="E2" display="3a4c0784-b4ee-4359-a849-d72277d74a37.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="3a4c0784-b4ee-4359-a849-d72277d74a37.020e7190a0749e28a782ba881c3051d83f86f386.zh-cn.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -317,13 +331,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>19</v>
@@ -337,20 +357,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3a4c0784-b4ee-4359-a849-d72277d74a37.md" r:id="rId1"/>
     <hyperlink ref="C2" display="3a4c0784-b4ee-4359-a849-d72277d74a37.020e7190a0749e28a782ba881c3051d83f86f386.de-de.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="E2" display="3a4c0784-b4ee-4359-a849-d72277d74a37.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="3a4c0784-b4ee-4359-a849-d72277d74a37.020e7190a0749e28a782ba881c3051d83f86f386.de-de.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>94a3b0c1-3797-4dd1-b5f2-dc182c966830.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>9be84bbd-15b2-494b-b15b-281c65f3c082.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-07 12:54:36</t>
   </si>
   <si>
+    <t>2016-01-07 12:55:26</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>9be84bbd-15b2-494b-b15b-281c65f3c082.df876eee37292aaa9718efe6365569a9768f969c.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>9be84bbd-15b2-494b-b15b-281c65f3c082.df876eee37292aaa9718efe6365569a9768f969c.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-07 12:54:47</t>
+  </si>
+  <si>
+    <t>2016-01-07 12:55:44</t>
   </si>
   <si>
     <t>9be84bbd-15b2-494b-b15b-281c65f3c082.df876eee37292aaa9718efe6365569a9768f969c.de-de.xlf</t>
@@ -259,6 +265,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -279,6 +291,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -294,22 +312,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="94a3b0c1-3797-4dd1-b5f2-dc182c966830.md" r:id="rId1"/>
     <hyperlink ref="C2" display="94a3b0c1-3797-4dd1-b5f2-dc182c966830.47062af9c8ed34cc7f3af68ab32df37d279a283f.zh-cn.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display="9be84bbd-15b2-494b-b15b-281c65f3c082.md" r:id="rId3"/>
-    <hyperlink ref="C3" display="9be84bbd-15b2-494b-b15b-281c65f3c082.df876eee37292aaa9718efe6365569a9768f969c.zh-cn.xlf" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="E2" display="94a3b0c1-3797-4dd1-b5f2-dc182c966830.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="94a3b0c1-3797-4dd1-b5f2-dc182c966830.47062af9c8ed34cc7f3af68ab32df37d279a283f.zh-cn.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display="9be84bbd-15b2-494b-b15b-281c65f3c082.md" r:id="rId5"/>
+    <hyperlink ref="C3" display="9be84bbd-15b2-494b-b15b-281c65f3c082.df876eee37292aaa9718efe6365569a9768f969c.zh-cn.xlf" r:id="rId6"/>
+    <hyperlink ref="E3" display="9be84bbd-15b2-494b-b15b-281c65f3c082.md" r:id="rId7"/>
+    <hyperlink ref="F3" display="9be84bbd-15b2-494b-b15b-281c65f3c082.df876eee37292aaa9718efe6365569a9768f969c.zh-cn.xlf" r:id="rId8"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -360,13 +382,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -380,13 +408,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -400,22 +434,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="94a3b0c1-3797-4dd1-b5f2-dc182c966830.md" r:id="rId1"/>
     <hyperlink ref="C2" display="94a3b0c1-3797-4dd1-b5f2-dc182c966830.47062af9c8ed34cc7f3af68ab32df37d279a283f.de-de.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display="9be84bbd-15b2-494b-b15b-281c65f3c082.md" r:id="rId3"/>
-    <hyperlink ref="C3" display="9be84bbd-15b2-494b-b15b-281c65f3c082.df876eee37292aaa9718efe6365569a9768f969c.de-de.xlf" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="E2" display="94a3b0c1-3797-4dd1-b5f2-dc182c966830.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="94a3b0c1-3797-4dd1-b5f2-dc182c966830.47062af9c8ed34cc7f3af68ab32df37d279a283f.de-de.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display="9be84bbd-15b2-494b-b15b-281c65f3c082.md" r:id="rId5"/>
+    <hyperlink ref="C3" display="9be84bbd-15b2-494b-b15b-281c65f3c082.df876eee37292aaa9718efe6365569a9768f969c.de-de.xlf" r:id="rId6"/>
+    <hyperlink ref="E3" display="9be84bbd-15b2-494b-b15b-281c65f3c082.md" r:id="rId7"/>
+    <hyperlink ref="F3" display="9be84bbd-15b2-494b-b15b-281c65f3c082.df876eee37292aaa9718efe6365569a9768f969c.de-de.xlf" r:id="rId8"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -25,7 +25,7 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>332a9b82-4130-4859-ad14-ac189c23a74b.md</t>
+    <t>47d3738c-4052-470e-8e9b-459ee40f12c3.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
@@ -64,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>332a9b82-4130-4859-ad14-ac189c23a74b.a08717ff88a9281d0d106c8bf0c43bd56329dc33.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-07 13:12:40</t>
+    <t>47d3738c-4052-470e-8e9b-459ee40f12c3.eb29a22f7709bebb31c2a91ae9232ddeaee4924c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-07 13:17:34</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>332a9b82-4130-4859-ad14-ac189c23a74b.a08717ff88a9281d0d106c8bf0c43bd56329dc33.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-07 13:12:51</t>
+    <t>47d3738c-4052-470e-8e9b-459ee40f12c3.eb29a22f7709bebb31c2a91ae9232ddeaee4924c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-07 13:17:44</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="332a9b82-4130-4859-ad14-ac189c23a74b.md" r:id="rId1"/>
+    <hyperlink ref="A2" display="47d3738c-4052-470e-8e9b-459ee40f12c3.md" r:id="rId1"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
@@ -264,8 +264,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="332a9b82-4130-4859-ad14-ac189c23a74b.md" r:id="rId1"/>
-    <hyperlink ref="C2" display="332a9b82-4130-4859-ad14-ac189c23a74b.a08717ff88a9281d0d106c8bf0c43bd56329dc33.zh-cn.xlf" r:id="rId2"/>
+    <hyperlink ref="A2" display="47d3738c-4052-470e-8e9b-459ee40f12c3.md" r:id="rId1"/>
+    <hyperlink ref="C2" display="47d3738c-4052-470e-8e9b-459ee40f12c3.eb29a22f7709bebb31c2a91ae9232ddeaee4924c.zh-cn.xlf" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -348,8 +348,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="332a9b82-4130-4859-ad14-ac189c23a74b.md" r:id="rId1"/>
-    <hyperlink ref="C2" display="332a9b82-4130-4859-ad14-ac189c23a74b.a08717ff88a9281d0d106c8bf0c43bd56329dc33.de-de.xlf" r:id="rId2"/>
+    <hyperlink ref="A2" display="47d3738c-4052-470e-8e9b-459ee40f12c3.md" r:id="rId1"/>
+    <hyperlink ref="C2" display="47d3738c-4052-470e-8e9b-459ee40f12c3.eb29a22f7709bebb31c2a91ae9232ddeaee4924c.de-de.xlf" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>20304d12-782e-453c-9c94-e8671dd9490d.1922ef0ce64f5cdd300e7da9727c28699cb0d5a2.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-07 13:20:16</t>
+    <t>2016-01-07 13:21:14</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>20304d12-782e-453c-9c94-e8671dd9490d.1922ef0ce64f5cdd300e7da9727c28699cb0d5a2.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-07 13:20:27</t>
+    <t>2016-01-07 13:21:25</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>6bf7fc87-0e12-41e6-bbc9-ef4ed731f951.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,12 +70,15 @@
     <t>2016-01-07 13:23:48</t>
   </si>
   <si>
+    <t>2016-01-07 13:25:06</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>2016-01-07 13:23:58</t>
+  </si>
+  <si>
+    <t>2016-01-07 13:25:21</t>
   </si>
 </sst>
 </file>
@@ -238,6 +244,12 @@
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>18</v>
       </c>
@@ -253,20 +265,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="6bf7fc87-0e12-41e6-bbc9-ef4ed731f951.md" r:id="rId1"/>
     <hyperlink ref="C2" display="6bf7fc87-0e12-41e6-bbc9-ef4ed731f951.cb0e987924ec2855145b39cd8815b9361da7d851.zh-cn.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="E2" display="6bf7fc87-0e12-41e6-bbc9-ef4ed731f951.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="6bf7fc87-0e12-41e6-bbc9-ef4ed731f951.cb0e987924ec2855145b39cd8815b9361da7d851.zh-cn.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -317,13 +331,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>19</v>
@@ -337,20 +357,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="6bf7fc87-0e12-41e6-bbc9-ef4ed731f951.md" r:id="rId1"/>
     <hyperlink ref="C2" display="6bf7fc87-0e12-41e6-bbc9-ef4ed731f951.cb0e987924ec2855145b39cd8815b9361da7d851.de-de.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="E2" display="6bf7fc87-0e12-41e6-bbc9-ef4ed731f951.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="6bf7fc87-0e12-41e6-bbc9-ef4ed731f951.cb0e987924ec2855145b39cd8815b9361da7d851.de-de.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>1dae8f16-580b-41df-86c4-dea2b1bc2c57.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>a6da3a44-0a20-42f7-8585-da3039dcbb2e.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-07 14:14:31</t>
   </si>
   <si>
+    <t>2016-01-07 14:15:31</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>a6da3a44-0a20-42f7-8585-da3039dcbb2e.b40c99edc99d64de8039f4ab4e0228d53227b034.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>a6da3a44-0a20-42f7-8585-da3039dcbb2e.b40c99edc99d64de8039f4ab4e0228d53227b034.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-07 14:14:44</t>
+  </si>
+  <si>
+    <t>2016-01-07 14:15:52</t>
   </si>
   <si>
     <t>a6da3a44-0a20-42f7-8585-da3039dcbb2e.b40c99edc99d64de8039f4ab4e0228d53227b034.de-de.xlf</t>
@@ -259,6 +265,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -279,6 +291,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -294,22 +312,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1dae8f16-580b-41df-86c4-dea2b1bc2c57.md" r:id="rId1"/>
     <hyperlink ref="C2" display="1dae8f16-580b-41df-86c4-dea2b1bc2c57.63d995da3bcf9121499df767357e9ac1b452aa74.zh-cn.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display="a6da3a44-0a20-42f7-8585-da3039dcbb2e.md" r:id="rId3"/>
-    <hyperlink ref="C3" display="a6da3a44-0a20-42f7-8585-da3039dcbb2e.b40c99edc99d64de8039f4ab4e0228d53227b034.zh-cn.xlf" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="E2" display="1dae8f16-580b-41df-86c4-dea2b1bc2c57.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="1dae8f16-580b-41df-86c4-dea2b1bc2c57.63d995da3bcf9121499df767357e9ac1b452aa74.zh-cn.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display="a6da3a44-0a20-42f7-8585-da3039dcbb2e.md" r:id="rId5"/>
+    <hyperlink ref="C3" display="a6da3a44-0a20-42f7-8585-da3039dcbb2e.b40c99edc99d64de8039f4ab4e0228d53227b034.zh-cn.xlf" r:id="rId6"/>
+    <hyperlink ref="E3" display="a6da3a44-0a20-42f7-8585-da3039dcbb2e.md" r:id="rId7"/>
+    <hyperlink ref="F3" display="a6da3a44-0a20-42f7-8585-da3039dcbb2e.b40c99edc99d64de8039f4ab4e0228d53227b034.zh-cn.xlf" r:id="rId8"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -360,13 +382,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -380,13 +408,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -400,22 +434,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1dae8f16-580b-41df-86c4-dea2b1bc2c57.md" r:id="rId1"/>
     <hyperlink ref="C2" display="1dae8f16-580b-41df-86c4-dea2b1bc2c57.63d995da3bcf9121499df767357e9ac1b452aa74.de-de.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display="a6da3a44-0a20-42f7-8585-da3039dcbb2e.md" r:id="rId3"/>
-    <hyperlink ref="C3" display="a6da3a44-0a20-42f7-8585-da3039dcbb2e.b40c99edc99d64de8039f4ab4e0228d53227b034.de-de.xlf" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="E2" display="1dae8f16-580b-41df-86c4-dea2b1bc2c57.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="1dae8f16-580b-41df-86c4-dea2b1bc2c57.63d995da3bcf9121499df767357e9ac1b452aa74.de-de.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display="a6da3a44-0a20-42f7-8585-da3039dcbb2e.md" r:id="rId5"/>
+    <hyperlink ref="C3" display="a6da3a44-0a20-42f7-8585-da3039dcbb2e.b40c99edc99d64de8039f4ab4e0228d53227b034.de-de.xlf" r:id="rId6"/>
+    <hyperlink ref="E3" display="a6da3a44-0a20-42f7-8585-da3039dcbb2e.md" r:id="rId7"/>
+    <hyperlink ref="F3" display="a6da3a44-0a20-42f7-8585-da3039dcbb2e.b40c99edc99d64de8039f4ab4e0228d53227b034.de-de.xlf" r:id="rId8"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -82,6 +82,12 @@
     <t>a6da3a44-0a20-42f7-8585-da3039dcbb2e.b40c99edc99d64de8039f4ab4e0228d53227b034.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-07 14:16:41</t>
+  </si>
+  <si>
+    <t>2016-01-07 14:17:25</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -98,6 +104,12 @@
   </si>
   <si>
     <t>a6da3a44-0a20-42f7-8585-da3039dcbb2e.b40c99edc99d64de8039f4ab4e0228d53227b034.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-07 14:16:53</t>
+  </si>
+  <si>
+    <t>2016-01-07 14:17:46</t>
   </si>
 </sst>
 </file>
@@ -289,7 +301,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -298,7 +310,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -312,13 +324,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -382,19 +394,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -408,19 +420,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -434,13 +446,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -25,7 +25,7 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>ccc965e6-3493-4248-b578-a883eb7318a8.md</t>
+    <t>d41a3c97-5146-429a-b964-84fbf5320474.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
@@ -64,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>ccc965e6-3493-4248-b578-a883eb7318a8.208fefe9bbed21346013f9151da1acb1eec13d1c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-07 14:33:23</t>
+    <t>d41a3c97-5146-429a-b964-84fbf5320474.8b42833444d6c740c75efe44c5453ef573b2a502.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-07 14:42:10</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>ccc965e6-3493-4248-b578-a883eb7318a8.208fefe9bbed21346013f9151da1acb1eec13d1c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-07 14:33:35</t>
+    <t>d41a3c97-5146-429a-b964-84fbf5320474.8b42833444d6c740c75efe44c5453ef573b2a502.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-07 14:42:22</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ccc965e6-3493-4248-b578-a883eb7318a8.md" r:id="rId1"/>
+    <hyperlink ref="A2" display="d41a3c97-5146-429a-b964-84fbf5320474.md" r:id="rId1"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
@@ -264,8 +264,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ccc965e6-3493-4248-b578-a883eb7318a8.md" r:id="rId1"/>
-    <hyperlink ref="C2" display="ccc965e6-3493-4248-b578-a883eb7318a8.208fefe9bbed21346013f9151da1acb1eec13d1c.zh-cn.xlf" r:id="rId2"/>
+    <hyperlink ref="A2" display="d41a3c97-5146-429a-b964-84fbf5320474.md" r:id="rId1"/>
+    <hyperlink ref="C2" display="d41a3c97-5146-429a-b964-84fbf5320474.8b42833444d6c740c75efe44c5453ef573b2a502.zh-cn.xlf" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -348,8 +348,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ccc965e6-3493-4248-b578-a883eb7318a8.md" r:id="rId1"/>
-    <hyperlink ref="C2" display="ccc965e6-3493-4248-b578-a883eb7318a8.208fefe9bbed21346013f9151da1acb1eec13d1c.de-de.xlf" r:id="rId2"/>
+    <hyperlink ref="A2" display="d41a3c97-5146-429a-b964-84fbf5320474.md" r:id="rId1"/>
+    <hyperlink ref="C2" display="d41a3c97-5146-429a-b964-84fbf5320474.8b42833444d6c740c75efe44c5453ef573b2a502.de-de.xlf" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>0ccfcc12-4f16-4619-9297-9d9a4a37b589.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>5226f423-48cf-453d-9916-ce2ebf69593a.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-07 15:02:31</t>
   </si>
   <si>
+    <t>2016-01-07 15:03:25</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>5226f423-48cf-453d-9916-ce2ebf69593a.dc8bf4974c1fed8df518e1b88491a6c74ae7c65b.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>5226f423-48cf-453d-9916-ce2ebf69593a.dc8bf4974c1fed8df518e1b88491a6c74ae7c65b.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-07 15:02:41</t>
+  </si>
+  <si>
+    <t>2016-01-07 15:03:40</t>
   </si>
   <si>
     <t>5226f423-48cf-453d-9916-ce2ebf69593a.dc8bf4974c1fed8df518e1b88491a6c74ae7c65b.de-de.xlf</t>
@@ -259,6 +265,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -279,6 +291,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -294,22 +312,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0ccfcc12-4f16-4619-9297-9d9a4a37b589.md" r:id="rId1"/>
     <hyperlink ref="C2" display="0ccfcc12-4f16-4619-9297-9d9a4a37b589.a5bb86c43093f814264443c988a0637257b8959e.zh-cn.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display="5226f423-48cf-453d-9916-ce2ebf69593a.md" r:id="rId3"/>
-    <hyperlink ref="C3" display="5226f423-48cf-453d-9916-ce2ebf69593a.dc8bf4974c1fed8df518e1b88491a6c74ae7c65b.zh-cn.xlf" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="E2" display="0ccfcc12-4f16-4619-9297-9d9a4a37b589.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="0ccfcc12-4f16-4619-9297-9d9a4a37b589.a5bb86c43093f814264443c988a0637257b8959e.zh-cn.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display="5226f423-48cf-453d-9916-ce2ebf69593a.md" r:id="rId5"/>
+    <hyperlink ref="C3" display="5226f423-48cf-453d-9916-ce2ebf69593a.dc8bf4974c1fed8df518e1b88491a6c74ae7c65b.zh-cn.xlf" r:id="rId6"/>
+    <hyperlink ref="E3" display="5226f423-48cf-453d-9916-ce2ebf69593a.md" r:id="rId7"/>
+    <hyperlink ref="F3" display="5226f423-48cf-453d-9916-ce2ebf69593a.dc8bf4974c1fed8df518e1b88491a6c74ae7c65b.zh-cn.xlf" r:id="rId8"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -360,13 +382,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -380,13 +408,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -400,22 +434,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0ccfcc12-4f16-4619-9297-9d9a4a37b589.md" r:id="rId1"/>
     <hyperlink ref="C2" display="0ccfcc12-4f16-4619-9297-9d9a4a37b589.a5bb86c43093f814264443c988a0637257b8959e.de-de.xlf" r:id="rId2"/>
-    <hyperlink ref="A3" display="5226f423-48cf-453d-9916-ce2ebf69593a.md" r:id="rId3"/>
-    <hyperlink ref="C3" display="5226f423-48cf-453d-9916-ce2ebf69593a.dc8bf4974c1fed8df518e1b88491a6c74ae7c65b.de-de.xlf" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="E2" display="0ccfcc12-4f16-4619-9297-9d9a4a37b589.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="0ccfcc12-4f16-4619-9297-9d9a4a37b589.a5bb86c43093f814264443c988a0637257b8959e.de-de.xlf" r:id="rId4"/>
+    <hyperlink ref="A3" display="5226f423-48cf-453d-9916-ce2ebf69593a.md" r:id="rId5"/>
+    <hyperlink ref="C3" display="5226f423-48cf-453d-9916-ce2ebf69593a.dc8bf4974c1fed8df518e1b88491a6c74ae7c65b.de-de.xlf" r:id="rId6"/>
+    <hyperlink ref="E3" display="5226f423-48cf-453d-9916-ce2ebf69593a.md" r:id="rId7"/>
+    <hyperlink ref="F3" display="5226f423-48cf-453d-9916-ce2ebf69593a.dc8bf4974c1fed8df518e1b88491a6c74ae7c65b.de-de.xlf" r:id="rId8"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>16f346e7-baca-4d9a-b8bd-cbeb4953ae8c.2ffa857c9274a0b9d73f8e354e0e9cfe5d65d55d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-07 15:19:00</t>
+    <t>2016-01-07 15:23:44</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>16f346e7-baca-4d9a-b8bd-cbeb4953ae8c.2ffa857c9274a0b9d73f8e354e0e9cfe5d65d55d.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-07 15:19:12</t>
+    <t>2016-01-07 15:23:55</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -70,18 +70,24 @@
     <t>16be212c-3060-485d-a738-6ea35e56d0fe.e6ea0de1ebce7a73d054aa171ad40132b50c5c58.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 07:20:45</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:21:31</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 07:18:43</t>
   </si>
   <si>
     <t>2016-01-08 07:19:41</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -91,13 +97,19 @@
     <t>16be212c-3060-485d-a738-6ea35e56d0fe.e6ea0de1ebce7a73d054aa171ad40132b50c5c58.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 07:20:55</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:21:50</t>
+  </si>
+  <si>
+    <t>5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 07:18:54</t>
   </si>
   <si>
     <t>2016-01-08 07:20:01</t>
-  </si>
-  <si>
-    <t>5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -289,7 +301,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -298,7 +310,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -312,13 +324,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -382,19 +394,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -408,19 +420,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -434,13 +446,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Handed back</t>
   </si>
   <si>
-    <t>5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,24 +67,15 @@
     <t>16be212c-3060-485d-a738-6ea35e56d0fe.e6ea0de1ebce7a73d054aa171ad40132b50c5c58.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 07:20:45</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:21:31</t>
+    <t>2016-01-08 07:22:27</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:23:11</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:18:43</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:19:41</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -97,19 +85,10 @@
     <t>16be212c-3060-485d-a738-6ea35e56d0fe.e6ea0de1ebce7a73d054aa171ad40132b50c5c58.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 07:20:55</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:21:50</t>
-  </si>
-  <si>
-    <t>5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:18:54</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:20:01</t>
+    <t>2016-01-08 07:22:40</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:23:29</t>
   </si>
 </sst>
 </file>
@@ -167,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -200,28 +179,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="16be212c-3060-485d-a738-6ea35e56d0fe.md" r:id="rId1"/>
-    <hyperlink ref="A3" display="5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.md" r:id="rId2"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -229,7 +196,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -237,31 +204,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -272,22 +239,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -295,42 +262,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -339,11 +280,7 @@
     <hyperlink ref="C2" display="16be212c-3060-485d-a738-6ea35e56d0fe.e6ea0de1ebce7a73d054aa171ad40132b50c5c58.zh-cn.xlf" r:id="rId2"/>
     <hyperlink ref="E2" display="16be212c-3060-485d-a738-6ea35e56d0fe.md" r:id="rId3"/>
     <hyperlink ref="F2" display="16be212c-3060-485d-a738-6ea35e56d0fe.e6ea0de1ebce7a73d054aa171ad40132b50c5c58.zh-cn.xlf" r:id="rId4"/>
-    <hyperlink ref="A3" display="5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.md" r:id="rId5"/>
-    <hyperlink ref="C3" display="5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.zh-cn.xlf" r:id="rId6"/>
-    <hyperlink ref="E3" display="5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.md" r:id="rId7"/>
-    <hyperlink ref="F3" display="5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.zh-cn.xlf" r:id="rId8"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId9"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -351,7 +288,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -359,31 +296,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -394,22 +331,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -417,42 +354,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -461,11 +372,7 @@
     <hyperlink ref="C2" display="16be212c-3060-485d-a738-6ea35e56d0fe.e6ea0de1ebce7a73d054aa171ad40132b50c5c58.de-de.xlf" r:id="rId2"/>
     <hyperlink ref="E2" display="16be212c-3060-485d-a738-6ea35e56d0fe.md" r:id="rId3"/>
     <hyperlink ref="F2" display="16be212c-3060-485d-a738-6ea35e56d0fe.e6ea0de1ebce7a73d054aa171ad40132b50c5c58.de-de.xlf" r:id="rId4"/>
-    <hyperlink ref="A3" display="5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.md" r:id="rId5"/>
-    <hyperlink ref="C3" display="5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.de-de.xlf" r:id="rId6"/>
-    <hyperlink ref="E3" display="5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.md" r:id="rId7"/>
-    <hyperlink ref="F3" display="5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.de-de.xlf" r:id="rId8"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId9"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>9cdeffcf-f821-4542-be60-ea1388c7c745.912f140ef7d792f28b5d6c653bbb4aede0869169.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 07:30:37</t>
+    <t>2016-01-08 07:31:11</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>9cdeffcf-f821-4542-be60-ea1388c7c745.912f140ef7d792f28b5d6c653bbb4aede0869169.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 07:30:48</t>
+    <t>2016-01-08 07:31:21</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -82,6 +82,12 @@
     <t>f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 07:39:12</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:39:54</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -98,6 +104,12 @@
   </si>
   <si>
     <t>f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:39:22</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:40:13</t>
   </si>
 </sst>
 </file>
@@ -339,7 +351,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -348,7 +360,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -362,13 +374,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -435,19 +447,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -461,19 +473,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -487,13 +499,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,15 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>ed55902c-b448-49d6-b25d-169a80caaffb.md</t>
+    <t>f6d7be87-2161-4471-9d93-20d3e1b3a1bc.md</t>
   </si>
   <si>
     <t>Handed back</t>
   </si>
   <si>
-    <t>f6d7be87-2161-4471-9d93-20d3e1b3a1bc.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -67,49 +64,31 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>ed55902c-b448-49d6-b25d-169a80caaffb.3219df02ef41a5c14429ffa3c5d1052d10911eeb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:37:33</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:38:11</t>
+    <t>f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:40:51</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:41:40</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:39:12</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:39:54</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
-    <t>ed55902c-b448-49d6-b25d-169a80caaffb.3219df02ef41a5c14429ffa3c5d1052d10911eeb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:37:43</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:38:28</t>
-  </si>
-  <si>
     <t>f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 07:39:22</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:40:13</t>
+    <t>2016-01-08 07:41:01</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:41:58</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -247,28 +226,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ed55902c-b448-49d6-b25d-169a80caaffb.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -279,7 +246,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -287,31 +254,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -322,22 +289,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -345,55 +312,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ed55902c-b448-49d6-b25d-169a80caaffb.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="ed55902c-b448-49d6-b25d-169a80caaffb.3219df02ef41a5c14429ffa3c5d1052d10911eeb.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="ed55902c-b448-49d6-b25d-169a80caaffb.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="ed55902c-b448-49d6-b25d-169a80caaffb.3219df02ef41a5c14429ffa3c5d1052d10911eeb.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -404,7 +341,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,31 +349,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -447,22 +384,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -470,55 +407,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ed55902c-b448-49d6-b25d-169a80caaffb.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="ed55902c-b448-49d6-b25d-169a80caaffb.3219df02ef41a5c14429ffa3c5d1052d10911eeb.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="ed55902c-b448-49d6-b25d-169a80caaffb.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="ed55902c-b448-49d6-b25d-169a80caaffb.3219df02ef41a5c14429ffa3c5d1052d10911eeb.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>c45e7969-c781-4d08-8fbd-993222706a65.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>e0693802-9124-458b-8fc8-ce40736a2552.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-08 08:36:55</t>
   </si>
   <si>
+    <t>2016-01-08 08:37:50</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>e0693802-9124-458b-8fc8-ce40736a2552.5e745b34354da389783356491629ca57eb8d387d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>e0693802-9124-458b-8fc8-ce40736a2552.5e745b34354da389783356491629ca57eb8d387d.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-08 08:37:10</t>
+  </si>
+  <si>
+    <t>2016-01-08 08:38:05</t>
   </si>
   <si>
     <t>e0693802-9124-458b-8fc8-ce40736a2552.5e745b34354da389783356491629ca57eb8d387d.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="c45e7969-c781-4d08-8fbd-993222706a65.md" r:id="rId2"/>
     <hyperlink ref="C2" display="c45e7969-c781-4d08-8fbd-993222706a65.8f6d31b12f2b0e9f9457d46762fe2049c99a6c5b.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e0693802-9124-458b-8fc8-ce40736a2552.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e0693802-9124-458b-8fc8-ce40736a2552.5e745b34354da389783356491629ca57eb8d387d.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="c45e7969-c781-4d08-8fbd-993222706a65.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="c45e7969-c781-4d08-8fbd-993222706a65.8f6d31b12f2b0e9f9457d46762fe2049c99a6c5b.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="e0693802-9124-458b-8fc8-ce40736a2552.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="e0693802-9124-458b-8fc8-ce40736a2552.5e745b34354da389783356491629ca57eb8d387d.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="e0693802-9124-458b-8fc8-ce40736a2552.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="e0693802-9124-458b-8fc8-ce40736a2552.5e745b34354da389783356491629ca57eb8d387d.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="c45e7969-c781-4d08-8fbd-993222706a65.md" r:id="rId2"/>
     <hyperlink ref="C2" display="c45e7969-c781-4d08-8fbd-993222706a65.8f6d31b12f2b0e9f9457d46762fe2049c99a6c5b.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e0693802-9124-458b-8fc8-ce40736a2552.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e0693802-9124-458b-8fc8-ce40736a2552.5e745b34354da389783356491629ca57eb8d387d.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="c45e7969-c781-4d08-8fbd-993222706a65.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="c45e7969-c781-4d08-8fbd-993222706a65.8f6d31b12f2b0e9f9457d46762fe2049c99a6c5b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="e0693802-9124-458b-8fc8-ce40736a2552.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="e0693802-9124-458b-8fc8-ce40736a2552.5e745b34354da389783356491629ca57eb8d387d.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="e0693802-9124-458b-8fc8-ce40736a2552.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="e0693802-9124-458b-8fc8-ce40736a2552.5e745b34354da389783356491629ca57eb8d387d.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>4694cac1-0c76-460a-9e37-eed913adbefa.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>5c8a57b5-dcc1-4db6-ab2e-fb1263056230.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-08 09:01:19</t>
   </si>
   <si>
+    <t>2016-01-08 09:02:15</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>5c8a57b5-dcc1-4db6-ab2e-fb1263056230.b89e86b7a1638172d03105f9538774ae505a43c2.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>5c8a57b5-dcc1-4db6-ab2e-fb1263056230.b89e86b7a1638172d03105f9538774ae505a43c2.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-08 09:01:30</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:02:32</t>
   </si>
   <si>
     <t>5c8a57b5-dcc1-4db6-ab2e-fb1263056230.b89e86b7a1638172d03105f9538774ae505a43c2.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4694cac1-0c76-460a-9e37-eed913adbefa.md" r:id="rId2"/>
     <hyperlink ref="C2" display="4694cac1-0c76-460a-9e37-eed913adbefa.e3e64a72f20027cc0ee51f5dd4322b38e3cf3023.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="5c8a57b5-dcc1-4db6-ab2e-fb1263056230.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="5c8a57b5-dcc1-4db6-ab2e-fb1263056230.b89e86b7a1638172d03105f9538774ae505a43c2.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="4694cac1-0c76-460a-9e37-eed913adbefa.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="4694cac1-0c76-460a-9e37-eed913adbefa.e3e64a72f20027cc0ee51f5dd4322b38e3cf3023.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="5c8a57b5-dcc1-4db6-ab2e-fb1263056230.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="5c8a57b5-dcc1-4db6-ab2e-fb1263056230.b89e86b7a1638172d03105f9538774ae505a43c2.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="5c8a57b5-dcc1-4db6-ab2e-fb1263056230.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="5c8a57b5-dcc1-4db6-ab2e-fb1263056230.b89e86b7a1638172d03105f9538774ae505a43c2.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4694cac1-0c76-460a-9e37-eed913adbefa.md" r:id="rId2"/>
     <hyperlink ref="C2" display="4694cac1-0c76-460a-9e37-eed913adbefa.e3e64a72f20027cc0ee51f5dd4322b38e3cf3023.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="5c8a57b5-dcc1-4db6-ab2e-fb1263056230.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="5c8a57b5-dcc1-4db6-ab2e-fb1263056230.b89e86b7a1638172d03105f9538774ae505a43c2.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="4694cac1-0c76-460a-9e37-eed913adbefa.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="4694cac1-0c76-460a-9e37-eed913adbefa.e3e64a72f20027cc0ee51f5dd4322b38e3cf3023.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="5c8a57b5-dcc1-4db6-ab2e-fb1263056230.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="5c8a57b5-dcc1-4db6-ab2e-fb1263056230.b89e86b7a1638172d03105f9538774ae505a43c2.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="5c8a57b5-dcc1-4db6-ab2e-fb1263056230.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="5c8a57b5-dcc1-4db6-ab2e-fb1263056230.b89e86b7a1638172d03105f9538774ae505a43c2.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>c4e0d75e-bd83-4761-b04e-1e09a06b14bc.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>d251f913-fc7d-4667-a862-4451cc1ce355.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-08 09:07:59</t>
   </si>
   <si>
+    <t>2016-01-08 09:08:35</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>d251f913-fc7d-4667-a862-4451cc1ce355.b0bed4720d2c4a87f197900112f91115559c763f.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>d251f913-fc7d-4667-a862-4451cc1ce355.b0bed4720d2c4a87f197900112f91115559c763f.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-08 09:08:10</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:08:53</t>
   </si>
   <si>
     <t>d251f913-fc7d-4667-a862-4451cc1ce355.b0bed4720d2c4a87f197900112f91115559c763f.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="c4e0d75e-bd83-4761-b04e-1e09a06b14bc.md" r:id="rId2"/>
     <hyperlink ref="C2" display="c4e0d75e-bd83-4761-b04e-1e09a06b14bc.6312a062ecb940130c0e32c69e0c8408bf7d9540.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="d251f913-fc7d-4667-a862-4451cc1ce355.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="d251f913-fc7d-4667-a862-4451cc1ce355.b0bed4720d2c4a87f197900112f91115559c763f.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="c4e0d75e-bd83-4761-b04e-1e09a06b14bc.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="c4e0d75e-bd83-4761-b04e-1e09a06b14bc.6312a062ecb940130c0e32c69e0c8408bf7d9540.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="d251f913-fc7d-4667-a862-4451cc1ce355.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="d251f913-fc7d-4667-a862-4451cc1ce355.b0bed4720d2c4a87f197900112f91115559c763f.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="d251f913-fc7d-4667-a862-4451cc1ce355.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="d251f913-fc7d-4667-a862-4451cc1ce355.b0bed4720d2c4a87f197900112f91115559c763f.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="c4e0d75e-bd83-4761-b04e-1e09a06b14bc.md" r:id="rId2"/>
     <hyperlink ref="C2" display="c4e0d75e-bd83-4761-b04e-1e09a06b14bc.6312a062ecb940130c0e32c69e0c8408bf7d9540.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="d251f913-fc7d-4667-a862-4451cc1ce355.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="d251f913-fc7d-4667-a862-4451cc1ce355.b0bed4720d2c4a87f197900112f91115559c763f.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="c4e0d75e-bd83-4761-b04e-1e09a06b14bc.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="c4e0d75e-bd83-4761-b04e-1e09a06b14bc.6312a062ecb940130c0e32c69e0c8408bf7d9540.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="d251f913-fc7d-4667-a862-4451cc1ce355.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="d251f913-fc7d-4667-a862-4451cc1ce355.b0bed4720d2c4a87f197900112f91115559c763f.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="d251f913-fc7d-4667-a862-4451cc1ce355.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="d251f913-fc7d-4667-a862-4451cc1ce355.b0bed4720d2c4a87f197900112f91115559c763f.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>3748dc1b-f3c1-4aec-a98f-81de8e16bc45.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-08 09:11:20</t>
   </si>
   <si>
+    <t>2016-01-08 09:12:13</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-08 09:11:31</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:12:30</t>
   </si>
   <si>
     <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.md" r:id="rId2"/>
     <hyperlink ref="C2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.97f35736aa506e274f75bb9cee2fcdf9158138c9.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.97f35736aa506e274f75bb9cee2fcdf9158138c9.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.md" r:id="rId2"/>
     <hyperlink ref="C2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.97f35736aa506e274f75bb9cee2fcdf9158138c9.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.97f35736aa506e274f75bb9cee2fcdf9158138c9.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -82,6 +82,12 @@
     <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 09:13:04</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:13:46</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -98,6 +104,12 @@
   </si>
   <si>
     <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:13:13</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:14:04</t>
   </si>
 </sst>
 </file>
@@ -355,7 +367,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -364,7 +376,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -378,13 +390,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -462,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -488,19 +500,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -514,13 +526,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,15 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>3748dc1b-f3c1-4aec-a98f-81de8e16bc45.md</t>
+    <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md</t>
   </si>
   <si>
     <t>Handed back</t>
   </si>
   <si>
-    <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -67,49 +64,31 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>3748dc1b-f3c1-4aec-a98f-81de8e16bc45.97f35736aa506e274f75bb9cee2fcdf9158138c9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:11:20</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:12:13</t>
+    <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:14:44</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:15:27</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:13:04</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:13:46</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
-    <t>3748dc1b-f3c1-4aec-a98f-81de8e16bc45.97f35736aa506e274f75bb9cee2fcdf9158138c9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:11:31</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:12:30</t>
-  </si>
-  <si>
     <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 09:13:13</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:14:04</t>
+    <t>2016-01-08 09:14:54</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:15:47</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,55 +328,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.97f35736aa506e274f75bb9cee2fcdf9158138c9.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.97f35736aa506e274f75bb9cee2fcdf9158138c9.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,55 +434,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.97f35736aa506e274f75bb9cee2fcdf9158138c9.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="3748dc1b-f3c1-4aec-a98f-81de8e16bc45.97f35736aa506e274f75bb9cee2fcdf9158138c9.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>1ddd3d0e-7b9e-45da-b7a2-ededd37b75c7.07b5d910097a9d19b5106c498aa4f82131c0eb33.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 09:19:21</t>
+    <t>2016-01-08 09:20:00</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>1ddd3d0e-7b9e-45da-b7a2-ededd37b75c7.07b5d910097a9d19b5106c498aa4f82131c0eb33.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 09:19:31</t>
+    <t>2016-01-08 09:20:11</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>1ddd3d0e-7b9e-45da-b7a2-ededd37b75c7.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,12 +70,15 @@
     <t>2016-01-08 09:20:00</t>
   </si>
   <si>
+    <t>2016-01-08 09:20:43</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>2016-01-08 09:20:11</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:21:00</t>
   </si>
 </sst>
 </file>
@@ -304,6 +310,12 @@
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>18</v>
       </c>
@@ -319,20 +331,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1ddd3d0e-7b9e-45da-b7a2-ededd37b75c7.md" r:id="rId2"/>
     <hyperlink ref="C2" display="1ddd3d0e-7b9e-45da-b7a2-ededd37b75c7.07b5d910097a9d19b5106c498aa4f82131c0eb33.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="E2" display="1ddd3d0e-7b9e-45da-b7a2-ededd37b75c7.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1ddd3d0e-7b9e-45da-b7a2-ededd37b75c7.07b5d910097a9d19b5106c498aa4f82131c0eb33.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -397,13 +411,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>19</v>
@@ -417,20 +437,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1ddd3d0e-7b9e-45da-b7a2-ededd37b75c7.md" r:id="rId2"/>
     <hyperlink ref="C2" display="1ddd3d0e-7b9e-45da-b7a2-ededd37b75c7.07b5d910097a9d19b5106c498aa4f82131c0eb33.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="E2" display="1ddd3d0e-7b9e-45da-b7a2-ededd37b75c7.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1ddd3d0e-7b9e-45da-b7a2-ededd37b75c7.07b5d910097a9d19b5106c498aa4f82131c0eb33.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>5a33a317-0aed-4bbd-8d07-d9286db36700.md</t>
+    <t>a54b5b54-efa2-4211-9ca6-d71878acffa3.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
   </si>
   <si>
-    <t>f9e32db1-1fbc-49c7-a126-e36ff2d38ecb.md</t>
-  </si>
-  <si>
-    <t>Handoff failed</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>5a33a317-0aed-4bbd-8d07-d9286db36700.1684fd7ab082868b9ddb0706a90d2836b22c6891.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:25:15</t>
+    <t>a54b5b54-efa2-4211-9ca6-d71878acffa3.92b5905d3bf38e1c63375a6bb58610923a9903bf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:25:56</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -85,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>5a33a317-0aed-4bbd-8d07-d9286db36700.1684fd7ab082868b9ddb0706a90d2836b22c6891.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:25:25</t>
+    <t>a54b5b54-efa2-4211-9ca6-d71878acffa3.92b5905d3bf38e1c63375a6bb58610923a9903bf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:26:06</t>
   </si>
 </sst>
 </file>
@@ -193,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -237,22 +231,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5a33a317-0aed-4bbd-8d07-d9286db36700.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="f9e32db1-1fbc-49c7-a126-e36ff2d38ecb.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="a54b5b54-efa2-4211-9ca6-d71878acffa3.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +264,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -317,16 +299,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -337,38 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5a33a317-0aed-4bbd-8d07-d9286db36700.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="5a33a317-0aed-4bbd-8d07-d9286db36700.1684fd7ab082868b9ddb0706a90d2836b22c6891.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="f9e32db1-1fbc-49c7-a126-e36ff2d38ecb.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="a54b5b54-efa2-4211-9ca6-d71878acffa3.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="a54b5b54-efa2-4211-9ca6-d71878acffa3.92b5905d3bf38e1c63375a6bb58610923a9903bf.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -379,7 +343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,31 +362,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -433,16 +397,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -453,38 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5a33a317-0aed-4bbd-8d07-d9286db36700.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="5a33a317-0aed-4bbd-8d07-d9286db36700.1684fd7ab082868b9ddb0706a90d2836b22c6891.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="f9e32db1-1fbc-49c7-a126-e36ff2d38ecb.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="a54b5b54-efa2-4211-9ca6-d71878acffa3.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="a54b5b54-efa2-4211-9ca6-d71878acffa3.92b5905d3bf38e1c63375a6bb58610923a9903bf.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>a54b5b54-efa2-4211-9ca6-d71878acffa3.92b5905d3bf38e1c63375a6bb58610923a9903bf.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 09:25:56</t>
+    <t>2016-01-08 09:26:37</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>a54b5b54-efa2-4211-9ca6-d71878acffa3.92b5905d3bf38e1c63375a6bb58610923a9903bf.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 09:26:06</t>
+    <t>2016-01-08 09:26:46</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -25,10 +25,10 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>a54b5b54-efa2-4211-9ca6-d71878acffa3.md</t>
-  </si>
-  <si>
-    <t>Not yet handed off</t>
+    <t>e33ee5b4-30a9-4314-baf0-637d772dabb8.md</t>
+  </si>
+  <si>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>a54b5b54-efa2-4211-9ca6-d71878acffa3.92b5905d3bf38e1c63375a6bb58610923a9903bf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:26:37</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>a54b5b54-efa2-4211-9ca6-d71878acffa3.92b5905d3bf38e1c63375a6bb58610923a9903bf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:26:46</t>
   </si>
 </sst>
 </file>
@@ -233,7 +218,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a54b5b54-efa2-4211-9ca6-d71878acffa3.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="e33ee5b4-30a9-4314-baf0-637d772dabb8.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a54b5b54-efa2-4211-9ca6-d71878acffa3.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="a54b5b54-efa2-4211-9ca6-d71878acffa3.92b5905d3bf38e1c63375a6bb58610923a9903bf.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="e33ee5b4-30a9-4314-baf0-637d772dabb8.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a54b5b54-efa2-4211-9ca6-d71878acffa3.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="a54b5b54-efa2-4211-9ca6-d71878acffa3.92b5905d3bf38e1c63375a6bb58610923a9903bf.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="e33ee5b4-30a9-4314-baf0-637d772dabb8.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>e33ee5b4-30a9-4314-baf0-637d772dabb8.md</t>
   </si>
   <si>
-    <t>Handoff failed</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,10 +64,25 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>e33ee5b4-30a9-4314-baf0-637d772dabb8.54d507c5a181821a77bf6bfbf4cd5f8ad6f80e0d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:29:12</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>e33ee5b4-30a9-4314-baf0-637d772dabb8.54d507c5a181821a77bf6bfbf4cd5f8ad6f80e0d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:29:21</t>
   </si>
 </sst>
 </file>
@@ -283,14 +298,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -301,19 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="e33ee5b4-30a9-4314-baf0-637d772dabb8.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="e33ee5b4-30a9-4314-baf0-637d772dabb8.54d507c5a181821a77bf6bfbf4cd5f8ad6f80e0d.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -377,14 +396,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -395,19 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="e33ee5b4-30a9-4314-baf0-637d772dabb8.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="e33ee5b4-30a9-4314-baf0-637d772dabb8.54d507c5a181821a77bf6bfbf4cd5f8ad6f80e0d.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>e33ee5b4-30a9-4314-baf0-637d772dabb8.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>e33ee5b4-30a9-4314-baf0-637d772dabb8.54d507c5a181821a77bf6bfbf4cd5f8ad6f80e0d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:29:12</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>e33ee5b4-30a9-4314-baf0-637d772dabb8.54d507c5a181821a77bf6bfbf4cd5f8ad6f80e0d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:29:21</t>
   </si>
 </sst>
 </file>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="e33ee5b4-30a9-4314-baf0-637d772dabb8.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="e33ee5b4-30a9-4314-baf0-637d772dabb8.54d507c5a181821a77bf6bfbf4cd5f8ad6f80e0d.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="e33ee5b4-30a9-4314-baf0-637d772dabb8.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="e33ee5b4-30a9-4314-baf0-637d772dabb8.54d507c5a181821a77bf6bfbf4cd5f8ad6f80e0d.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-08 10:18:16</t>
   </si>
   <si>
+    <t>2016-01-08 10:18:57</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-08 10:18:26</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:19:14</t>
   </si>
   <si>
     <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.md" r:id="rId2"/>
     <hyperlink ref="C2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.md" r:id="rId2"/>
     <hyperlink ref="C2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -70,18 +70,24 @@
     <t>100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 10:19:59</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:20:42</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 10:18:16</t>
   </si>
   <si>
     <t>2016-01-08 10:18:57</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -91,13 +97,19 @@
     <t>100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 10:20:10</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:21:00</t>
+  </si>
+  <si>
+    <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 10:18:26</t>
   </si>
   <si>
     <t>2016-01-08 10:19:14</t>
-  </si>
-  <si>
-    <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -355,7 +367,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -364,7 +376,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -378,13 +390,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -462,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -488,19 +500,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -514,13 +526,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Handed back</t>
   </si>
   <si>
-    <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,24 +67,15 @@
     <t>100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 10:19:59</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:20:42</t>
+    <t>2016-01-08 10:21:38</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:22:22</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:18:16</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:18:57</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -97,19 +85,10 @@
     <t>100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 10:20:10</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:21:00</t>
-  </si>
-  <si>
-    <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:18:26</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:19:14</t>
+    <t>2016-01-08 10:21:47</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:22:39</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,42 +328,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -405,11 +346,7 @@
     <hyperlink ref="C2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.md" r:id="rId4"/>
     <hyperlink ref="F2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,42 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -541,11 +452,7 @@
     <hyperlink ref="C2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.md" r:id="rId4"/>
     <hyperlink ref="F2" display="100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>cb5e2383-561e-4e76-a7d9-c260333fb973.869c773fc2e2f61e9fd42a6d30985e6d008791fc.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 10:34:28</t>
+    <t>2016-01-08 10:35:05</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>cb5e2383-561e-4e76-a7d9-c260333fb973.869c773fc2e2f61e9fd42a6d30985e6d008791fc.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 10:34:38</t>
+    <t>2016-01-08 10:35:14</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,12 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>cb5e2383-561e-4e76-a7d9-c260333fb973.md</t>
+    <t>e2212604-b45a-4ebc-af33-2c6f14975545.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
   </si>
   <si>
+    <t>aca59f08-a9bf-453d-83b4-6b3f1e5f661b.md</t>
+  </si>
+  <si>
+    <t>Handoff failed</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -64,10 +70,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>cb5e2383-561e-4e76-a7d9-c260333fb973.869c773fc2e2f61e9fd42a6d30985e6d008791fc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:35:05</t>
+    <t>e2212604-b45a-4ebc-af33-2c6f14975545.c724ce3357910043431093a707bfc7259c968a11.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:35:47</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +85,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>cb5e2383-561e-4e76-a7d9-c260333fb973.869c773fc2e2f61e9fd42a6d30985e6d008791fc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:35:14</t>
+    <t>e2212604-b45a-4ebc-af33-2c6f14975545.c724ce3357910043431093a707bfc7259c968a11.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:35:57</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -231,10 +237,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="cb5e2383-561e-4e76-a7d9-c260333fb973.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="e2212604-b45a-4ebc-af33-2c6f14975545.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="aca59f08-a9bf-453d-83b4-6b3f1e5f661b.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -245,7 +263,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -264,31 +282,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -299,16 +317,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +337,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="cb5e2383-561e-4e76-a7d9-c260333fb973.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="cb5e2383-561e-4e76-a7d9-c260333fb973.869c773fc2e2f61e9fd42a6d30985e6d008791fc.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="e2212604-b45a-4ebc-af33-2c6f14975545.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="e2212604-b45a-4ebc-af33-2c6f14975545.c724ce3357910043431093a707bfc7259c968a11.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="aca59f08-a9bf-453d-83b4-6b3f1e5f661b.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -343,7 +379,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,31 +398,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -397,16 +433,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +453,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="cb5e2383-561e-4e76-a7d9-c260333fb973.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="cb5e2383-561e-4e76-a7d9-c260333fb973.869c773fc2e2f61e9fd42a6d30985e6d008791fc.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="e2212604-b45a-4ebc-af33-2c6f14975545.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="e2212604-b45a-4ebc-af33-2c6f14975545.c724ce3357910043431093a707bfc7259c968a11.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="aca59f08-a9bf-453d-83b4-6b3f1e5f661b.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>e2212604-b45a-4ebc-af33-2c6f14975545.md</t>
+    <t>3629b8fc-7e47-4fb7-bc9a-4a2733432db0.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
   </si>
   <si>
-    <t>aca59f08-a9bf-453d-83b4-6b3f1e5f661b.md</t>
-  </si>
-  <si>
-    <t>Handoff failed</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>e2212604-b45a-4ebc-af33-2c6f14975545.c724ce3357910043431093a707bfc7259c968a11.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:35:47</t>
+    <t>3629b8fc-7e47-4fb7-bc9a-4a2733432db0.236181c073ba3359ff5328a270e1502e77b61c31.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:36:30</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -85,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>e2212604-b45a-4ebc-af33-2c6f14975545.c724ce3357910043431093a707bfc7259c968a11.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:35:57</t>
+    <t>3629b8fc-7e47-4fb7-bc9a-4a2733432db0.236181c073ba3359ff5328a270e1502e77b61c31.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:36:41</t>
   </si>
 </sst>
 </file>
@@ -193,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -237,22 +231,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e2212604-b45a-4ebc-af33-2c6f14975545.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="aca59f08-a9bf-453d-83b4-6b3f1e5f661b.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="3629b8fc-7e47-4fb7-bc9a-4a2733432db0.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +264,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -317,16 +299,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -337,38 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e2212604-b45a-4ebc-af33-2c6f14975545.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="e2212604-b45a-4ebc-af33-2c6f14975545.c724ce3357910043431093a707bfc7259c968a11.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="aca59f08-a9bf-453d-83b4-6b3f1e5f661b.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="3629b8fc-7e47-4fb7-bc9a-4a2733432db0.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="3629b8fc-7e47-4fb7-bc9a-4a2733432db0.236181c073ba3359ff5328a270e1502e77b61c31.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -379,7 +343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,31 +362,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -433,16 +397,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -453,38 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e2212604-b45a-4ebc-af33-2c6f14975545.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="e2212604-b45a-4ebc-af33-2c6f14975545.c724ce3357910043431093a707bfc7259c968a11.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="aca59f08-a9bf-453d-83b4-6b3f1e5f661b.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="3629b8fc-7e47-4fb7-bc9a-4a2733432db0.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="3629b8fc-7e47-4fb7-bc9a-4a2733432db0.236181c073ba3359ff5328a270e1502e77b61c31.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>3629b8fc-7e47-4fb7-bc9a-4a2733432db0.236181c073ba3359ff5328a270e1502e77b61c31.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 10:36:30</t>
+    <t>2016-01-08 10:37:10</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>3629b8fc-7e47-4fb7-bc9a-4a2733432db0.236181c073ba3359ff5328a270e1502e77b61c31.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 10:36:41</t>
+    <t>2016-01-08 10:37:21</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -25,10 +25,10 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>3629b8fc-7e47-4fb7-bc9a-4a2733432db0.md</t>
-  </si>
-  <si>
-    <t>Not yet handed off</t>
+    <t>c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.md</t>
+  </si>
+  <si>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>3629b8fc-7e47-4fb7-bc9a-4a2733432db0.236181c073ba3359ff5328a270e1502e77b61c31.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:37:10</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>3629b8fc-7e47-4fb7-bc9a-4a2733432db0.236181c073ba3359ff5328a270e1502e77b61c31.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:37:21</t>
   </si>
 </sst>
 </file>
@@ -233,7 +218,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="3629b8fc-7e47-4fb7-bc9a-4a2733432db0.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="3629b8fc-7e47-4fb7-bc9a-4a2733432db0.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="3629b8fc-7e47-4fb7-bc9a-4a2733432db0.236181c073ba3359ff5328a270e1502e77b61c31.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="3629b8fc-7e47-4fb7-bc9a-4a2733432db0.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="3629b8fc-7e47-4fb7-bc9a-4a2733432db0.236181c073ba3359ff5328a270e1502e77b61c31.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.md</t>
   </si>
   <si>
-    <t>Handoff failed</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,10 +64,25 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.e05eda47f1f1d6240c059956c0bbc44c516f8730.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:39:45</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.e05eda47f1f1d6240c059956c0bbc44c516f8730.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:39:54</t>
   </si>
 </sst>
 </file>
@@ -283,14 +298,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -301,19 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.e05eda47f1f1d6240c059956c0bbc44c516f8730.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -377,14 +396,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -395,19 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.e05eda47f1f1d6240c059956c0bbc44c516f8730.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.e05eda47f1f1d6240c059956c0bbc44c516f8730.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:39:45</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.e05eda47f1f1d6240c059956c0bbc44c516f8730.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:39:54</t>
   </si>
 </sst>
 </file>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.e05eda47f1f1d6240c059956c0bbc44c516f8730.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="c5c317c1-99b9-4fdc-9fbb-b71ed502eb84.e05eda47f1f1d6240c059956c0bbc44c516f8730.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>0c38d88b-cef0-44dd-8447-a71ab02f33f1.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-08 11:10:19</t>
   </si>
   <si>
+    <t>2016-01-08 11:10:57</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-08 11:10:29</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:11:14</t>
   </si>
   <si>
     <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.md" r:id="rId2"/>
     <hyperlink ref="C2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.md" r:id="rId2"/>
     <hyperlink ref="C2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -70,18 +70,24 @@
     <t>0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 11:11:57</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:12:41</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 11:10:19</t>
   </si>
   <si>
     <t>2016-01-08 11:10:57</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -91,13 +97,19 @@
     <t>0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 11:12:07</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:12:57</t>
+  </si>
+  <si>
+    <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 11:10:29</t>
   </si>
   <si>
     <t>2016-01-08 11:11:14</t>
-  </si>
-  <si>
-    <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -355,7 +367,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -364,7 +376,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -378,13 +390,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -462,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -488,19 +500,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -514,13 +526,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Handed back</t>
   </si>
   <si>
-    <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,24 +67,15 @@
     <t>0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 11:11:57</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:12:41</t>
+    <t>2016-01-08 11:13:38</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:14:20</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:10:19</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:10:57</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -97,19 +85,10 @@
     <t>0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 11:12:07</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:12:57</t>
-  </si>
-  <si>
-    <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:10:29</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:11:14</t>
+    <t>2016-01-08 11:13:47</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:14:36</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,42 +328,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -405,11 +346,7 @@
     <hyperlink ref="C2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.md" r:id="rId4"/>
     <hyperlink ref="F2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,42 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -541,11 +452,7 @@
     <hyperlink ref="C2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.md" r:id="rId4"/>
     <hyperlink ref="F2" display="0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>72b89108-38b6-412e-bb7d-ada4f4b661a1.732bc092d52fc4487124e075b6c0ab5dc0d5ce66.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 11:26:35</t>
+    <t>2016-01-08 11:27:15</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>72b89108-38b6-412e-bb7d-ada4f4b661a1.732bc092d52fc4487124e075b6c0ab5dc0d5ce66.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 11:26:45</t>
+    <t>2016-01-08 11:27:24</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,12 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>72b89108-38b6-412e-bb7d-ada4f4b661a1.md</t>
+    <t>02f6eebe-0141-4509-b737-5ea24fd2c875.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
   </si>
   <si>
+    <t>0a6bba8c-aa8a-4898-8d17-3b1e03c81a59.md</t>
+  </si>
+  <si>
+    <t>Handoff failed</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -64,10 +70,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>72b89108-38b6-412e-bb7d-ada4f4b661a1.732bc092d52fc4487124e075b6c0ab5dc0d5ce66.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:27:15</t>
+    <t>02f6eebe-0141-4509-b737-5ea24fd2c875.0065ea26dc5f9f17c56a10e8794c8c09e8c38d53.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:27:57</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +85,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>72b89108-38b6-412e-bb7d-ada4f4b661a1.732bc092d52fc4487124e075b6c0ab5dc0d5ce66.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:27:24</t>
+    <t>02f6eebe-0141-4509-b737-5ea24fd2c875.0065ea26dc5f9f17c56a10e8794c8c09e8c38d53.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:28:08</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -231,10 +237,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="72b89108-38b6-412e-bb7d-ada4f4b661a1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="02f6eebe-0141-4509-b737-5ea24fd2c875.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="0a6bba8c-aa8a-4898-8d17-3b1e03c81a59.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -245,7 +263,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -264,31 +282,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -299,16 +317,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +337,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="72b89108-38b6-412e-bb7d-ada4f4b661a1.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="72b89108-38b6-412e-bb7d-ada4f4b661a1.732bc092d52fc4487124e075b6c0ab5dc0d5ce66.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="02f6eebe-0141-4509-b737-5ea24fd2c875.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="02f6eebe-0141-4509-b737-5ea24fd2c875.0065ea26dc5f9f17c56a10e8794c8c09e8c38d53.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="0a6bba8c-aa8a-4898-8d17-3b1e03c81a59.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -343,7 +379,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,31 +398,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -397,16 +433,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +453,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="72b89108-38b6-412e-bb7d-ada4f4b661a1.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="72b89108-38b6-412e-bb7d-ada4f4b661a1.732bc092d52fc4487124e075b6c0ab5dc0d5ce66.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="02f6eebe-0141-4509-b737-5ea24fd2c875.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="02f6eebe-0141-4509-b737-5ea24fd2c875.0065ea26dc5f9f17c56a10e8794c8c09e8c38d53.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="0a6bba8c-aa8a-4898-8d17-3b1e03c81a59.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>02f6eebe-0141-4509-b737-5ea24fd2c875.md</t>
+    <t>1cab4836-11d3-460d-bb6f-b163cee0a381.md</t>
   </si>
   <si>
     <t>Not yet handed off</t>
   </si>
   <si>
-    <t>0a6bba8c-aa8a-4898-8d17-3b1e03c81a59.md</t>
-  </si>
-  <si>
-    <t>Handoff failed</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>02f6eebe-0141-4509-b737-5ea24fd2c875.0065ea26dc5f9f17c56a10e8794c8c09e8c38d53.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:27:57</t>
+    <t>1cab4836-11d3-460d-bb6f-b163cee0a381.a93b885445f8ef946d1d7566735d1e5e95cf65d6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:28:42</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -85,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>02f6eebe-0141-4509-b737-5ea24fd2c875.0065ea26dc5f9f17c56a10e8794c8c09e8c38d53.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:28:08</t>
+    <t>1cab4836-11d3-460d-bb6f-b163cee0a381.a93b885445f8ef946d1d7566735d1e5e95cf65d6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:28:50</t>
   </si>
 </sst>
 </file>
@@ -193,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -237,22 +231,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="02f6eebe-0141-4509-b737-5ea24fd2c875.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="0a6bba8c-aa8a-4898-8d17-3b1e03c81a59.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="1cab4836-11d3-460d-bb6f-b163cee0a381.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +264,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -317,16 +299,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -337,38 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="02f6eebe-0141-4509-b737-5ea24fd2c875.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="02f6eebe-0141-4509-b737-5ea24fd2c875.0065ea26dc5f9f17c56a10e8794c8c09e8c38d53.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="0a6bba8c-aa8a-4898-8d17-3b1e03c81a59.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="1cab4836-11d3-460d-bb6f-b163cee0a381.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1cab4836-11d3-460d-bb6f-b163cee0a381.a93b885445f8ef946d1d7566735d1e5e95cf65d6.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -379,7 +343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,31 +362,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -433,16 +397,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -453,38 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="02f6eebe-0141-4509-b737-5ea24fd2c875.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="02f6eebe-0141-4509-b737-5ea24fd2c875.0065ea26dc5f9f17c56a10e8794c8c09e8c38d53.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="0a6bba8c-aa8a-4898-8d17-3b1e03c81a59.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="1cab4836-11d3-460d-bb6f-b163cee0a381.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1cab4836-11d3-460d-bb6f-b163cee0a381.a93b885445f8ef946d1d7566735d1e5e95cf65d6.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>1cab4836-11d3-460d-bb6f-b163cee0a381.a93b885445f8ef946d1d7566735d1e5e95cf65d6.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 11:28:42</t>
+    <t>2016-01-08 11:29:22</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>1cab4836-11d3-460d-bb6f-b163cee0a381.a93b885445f8ef946d1d7566735d1e5e95cf65d6.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 11:28:50</t>
+    <t>2016-01-08 11:29:31</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -25,10 +25,10 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>1cab4836-11d3-460d-bb6f-b163cee0a381.md</t>
-  </si>
-  <si>
-    <t>Not yet handed off</t>
+    <t>dfc3b845-555e-4fc7-801d-c410bc78d5f4.md</t>
+  </si>
+  <si>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>1cab4836-11d3-460d-bb6f-b163cee0a381.a93b885445f8ef946d1d7566735d1e5e95cf65d6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:29:22</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>1cab4836-11d3-460d-bb6f-b163cee0a381.a93b885445f8ef946d1d7566735d1e5e95cf65d6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:29:31</t>
   </si>
 </sst>
 </file>
@@ -233,7 +218,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1cab4836-11d3-460d-bb6f-b163cee0a381.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="dfc3b845-555e-4fc7-801d-c410bc78d5f4.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1cab4836-11d3-460d-bb6f-b163cee0a381.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1cab4836-11d3-460d-bb6f-b163cee0a381.a93b885445f8ef946d1d7566735d1e5e95cf65d6.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="dfc3b845-555e-4fc7-801d-c410bc78d5f4.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1cab4836-11d3-460d-bb6f-b163cee0a381.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1cab4836-11d3-460d-bb6f-b163cee0a381.a93b885445f8ef946d1d7566735d1e5e95cf65d6.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="dfc3b845-555e-4fc7-801d-c410bc78d5f4.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>dfc3b845-555e-4fc7-801d-c410bc78d5f4.md</t>
   </si>
   <si>
-    <t>Handoff failed</t>
+    <t>Not yet handed off</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,10 +64,25 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>dfc3b845-555e-4fc7-801d-c410bc78d5f4.b0b414fa5ae4662f99651fed35c0cce1503ee3ca.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:31:56</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>dfc3b845-555e-4fc7-801d-c410bc78d5f4.b0b414fa5ae4662f99651fed35c0cce1503ee3ca.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:32:05</t>
   </si>
 </sst>
 </file>
@@ -283,14 +298,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -301,19 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="dfc3b845-555e-4fc7-801d-c410bc78d5f4.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="dfc3b845-555e-4fc7-801d-c410bc78d5f4.b0b414fa5ae4662f99651fed35c0cce1503ee3ca.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -377,14 +396,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -395,19 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="dfc3b845-555e-4fc7-801d-c410bc78d5f4.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="dfc3b845-555e-4fc7-801d-c410bc78d5f4.b0b414fa5ae4662f99651fed35c0cce1503ee3ca.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>dfc3b845-555e-4fc7-801d-c410bc78d5f4.md</t>
   </si>
   <si>
-    <t>Not yet handed off</t>
+    <t>Handoff failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>dfc3b845-555e-4fc7-801d-c410bc78d5f4.b0b414fa5ae4662f99651fed35c0cce1503ee3ca.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:31:56</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>dfc3b845-555e-4fc7-801d-c410bc78d5f4.b0b414fa5ae4662f99651fed35c0cce1503ee3ca.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:32:05</t>
   </si>
 </sst>
 </file>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="dfc3b845-555e-4fc7-801d-c410bc78d5f4.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="dfc3b845-555e-4fc7-801d-c410bc78d5f4.b0b414fa5ae4662f99651fed35c0cce1503ee3ca.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="dfc3b845-555e-4fc7-801d-c410bc78d5f4.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="dfc3b845-555e-4fc7-801d-c410bc78d5f4.b0b414fa5ae4662f99651fed35c0cce1503ee3ca.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
